--- a/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
+++ b/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510020</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时上证超级大盘ETF</t>
+          <t>国泰中证全指通信设备ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>98.44</t>
+          <t>27.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4652</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>673010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证全指通信设备ETF</t>
+          <t>西部利得新动向混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.72</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>673010</t>
+          <t>510020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西部利得新动向混合</t>
+          <t>博时上证超级大盘ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>67.50</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000804</t>
+          <t>673141</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投稳利混合A</t>
+          <t>西部利得景程灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.71</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006844</t>
+          <t>000804</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投稳利混合C</t>
+          <t>中信建投稳利混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>26.71</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.73</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>673141</t>
+          <t>006844</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>西部利得景程灵活配置混合A</t>
+          <t>中信建投稳利混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>68.92</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>68.92</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.15</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -693,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +792,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,25 +822,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002732</t>
+          <t>515050</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛沪港深优势精选灵活配置混合</t>
+          <t>华夏中证5G通信主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.79</t>
+          <t>185.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -762,26 +860,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000804</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投稳利混合A</t>
+          <t>国泰中证全指通信设备ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.77</t>
+          <t>31.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +898,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006844</t>
+          <t>159994</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投稳利混合C</t>
+          <t>银华中证5G通信主题ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.77</t>
+          <t>44.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>97.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1807</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +936,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>510020</t>
+          <t>159811</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时上证超级大盘ETF</t>
+          <t>博时中证5G产业50ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +974,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>400013</t>
+          <t>673010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方成长收益灵活配置混合A</t>
+          <t>西部利得新动向混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>60.47</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1012,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007687</t>
+          <t>005495</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方成长收益灵活配置混合C</t>
+          <t>创金合信科技成长主题股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>60.47</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1050,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515050</t>
+          <t>510020</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏中证5G通信主题ETF</t>
+          <t>博时上证超级大盘ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.97</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -930,26 +1088,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>400013</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰中证全指通信设备ETF</t>
+          <t>东方成长收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.58</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -958,26 +1126,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159811</t>
+          <t>007687</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时中证5G产业50ETF</t>
+          <t>东方成长收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -986,25 +1164,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>159994</t>
+          <t>002732</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银华中证5G通信主题ETF</t>
+          <t>长盛沪港深优势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>97.68</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>673010</t>
+          <t>005496</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西部利得新动向混合</t>
+          <t>创金合信科技成长主题股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>66.67</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005495</t>
+          <t>000804</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票A</t>
+          <t>中信建投稳利混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005496</t>
+          <t>006844</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票C</t>
+          <t>中信建投稳利混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
+++ b/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1313,4 +1314,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6531</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
+++ b/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1522,4 +1523,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6441</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
+++ b/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1769,4 +1770,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
+++ b/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1778,7 +1779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1789,17 +1790,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1809,14 +1830,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.9</v>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>117.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1825,14 +1868,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.84</v>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1841,14 +1906,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.65</v>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1857,13 +1944,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
+++ b/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2253,7 +2254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2264,17 +2265,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2284,14 +2305,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.88</v>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2300,14 +2343,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1677</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2316,14 +2381,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.84</v>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6764</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2332,14 +2419,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.65</v>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2348,13 +2457,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
+++ b/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2728,7 +2729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2739,17 +2740,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2759,14 +2780,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.43</v>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2775,14 +2818,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.88</v>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2791,14 +2856,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.9</v>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2807,14 +2894,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.84</v>
       </c>
     </row>
     <row r="6">
@@ -2823,14 +2932,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.65</v>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2839,13 +2970,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
+++ b/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>5.43</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>5.88</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>1.9</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>8.65</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.71</v>
       </c>
     </row>
@@ -666,12 +683,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.30</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>99.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -681,11 +698,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9095</t>
+          <t>0.7753</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -699,27 +716,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+          <t>前海开源深圳特区精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>87.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1830</t>
+          <t>0.1358</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000646</t>
+          <t>001528</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华润元大量化优选混合A</t>
+          <t>诺安先进制造股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>66.39</t>
+          <t>83.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0758</t>
+          <t>0.0500</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>673020</t>
+          <t>561310</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得成长精选灵活配置混合</t>
+          <t>国泰中证消费电子主题ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.85</t>
+          <t>97.89</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0680</t>
+          <t>0.0243</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007806</t>
+          <t>011723</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信MSCI中国A股指数增强A</t>
+          <t>前海开源深圳特区精选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>87.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0356</t>
+          <t>0.0225</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>510290</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰上证综合ETF</t>
+          <t>南方上证380ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.71</t>
+          <t>99.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0322</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011723</t>
+          <t>561600</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+          <t>平安中证消费电子主题ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>96.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0263</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007807</t>
+          <t>159769</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信MSCI中国A股指数增强C</t>
+          <t>银华中证消费电子主题ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>97.61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>510290</t>
+          <t>010307</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方上证380ETF</t>
+          <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007827</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华润元大量化优选混合C</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>66.39</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +1058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1092,36 +1109,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515050</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证5G通信主题ETF</t>
+          <t>国泰中证全指通信设备ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>14.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.62</t>
+          <t>99.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0292</t>
+          <t>0.9095</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1130,36 +1147,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>011722</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证全指通信设备ETF</t>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.24</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.37</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1677</t>
+          <t>0.1830</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1168,36 +1185,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159994</t>
+          <t>000646</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华中证5G通信主题ETF</t>
+          <t>华润元大量化优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.75</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.87</t>
+          <t>66.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6764</t>
+          <t>0.0758</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1206,36 +1223,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011722</t>
+          <t>673020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+          <t>西部利得成长精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>83.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1890</t>
+          <t>0.0680</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1244,36 +1261,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007657</t>
+          <t>007806</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方红中证竞争力指数A</t>
+          <t>建信MSCI中国A股指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>92.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1435</t>
+          <t>0.0356</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1282,36 +1299,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159811</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时中证5G产业50ETF</t>
+          <t>国泰上证综合ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.65</t>
+          <t>95.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0780</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1320,36 +1337,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011132</t>
+          <t>011723</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0663</t>
+          <t>0.0263</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1358,36 +1375,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011723</t>
+          <t>007807</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+          <t>建信MSCI中国A股指数增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>92.88</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0277</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1396,36 +1413,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011133</t>
+          <t>510290</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+          <t>南方上证380ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0194</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1434,74 +1451,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007658</t>
+          <t>007827</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方红中证竞争力指数C</t>
+          <t>华润元大量化优选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>66.39</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160137</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方中证互联网指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1576,22 +1555,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>117.06</t>
+          <t>95.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>99.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1255</t>
+          <t>3.0292</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1614,22 +1593,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.97</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.45</t>
+          <t>99.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2919</t>
+          <t>1.1677</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1652,22 +1631,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.29</t>
+          <t>21.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.52</t>
+          <t>97.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6413</t>
+          <t>0.6764</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1690,22 +1669,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3480</t>
+          <t>0.1890</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1728,22 +1707,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1813</t>
+          <t>0.1435</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1756,36 +1735,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011132</t>
+          <t>159811</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+          <t>博时中证5G产业50ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.52</t>
+          <t>97.65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0871</t>
+          <t>0.0780</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1794,32 +1773,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159811</t>
+          <t>011132</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时中证5G产业50ETF</t>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.78</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0754</t>
+          <t>0.0663</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1832,36 +1811,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>011723</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰上证综合ETF</t>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.0277</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1880,26 +1859,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.52</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0343</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1908,36 +1887,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011723</t>
+          <t>007658</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+          <t>东方红中证竞争力指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0329</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1946,36 +1925,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007658</t>
+          <t>160137</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东方红中证竞争力指数C</t>
+          <t>南方中证互联网指数（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0233</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1984,6 +1963,480 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>117.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2229,7 +2682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2437,7 +2890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2987,7 +3440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
+++ b/数据整理/stocks/A股/上证主板/601138-工业富联.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>1.06</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>5.43</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>5.88</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.9</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>8.65</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,354 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4652</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +1020,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>99.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7753</t>
+          <t>0.8607</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1048,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011722</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票A</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>14.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.53</t>
+          <t>60.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1358</t>
+          <t>0.3337</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1086,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001528</t>
+          <t>090013</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安先进制造股票</t>
+          <t>大成竞争优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.34</t>
+          <t>62.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0500</t>
+          <t>0.2145</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1124,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>561310</t>
+          <t>320011</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证消费电子主题ETF</t>
+          <t>诺安中小盘精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.89</t>
+          <t>84.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0243</t>
+          <t>0.1726</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1162,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011723</t>
+          <t>011722</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票C</t>
+          <t>前海开源深圳特区精选股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.53</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0225</t>
+          <t>0.1473</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1200,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>510290</t>
+          <t>001528</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方上证380ETF</t>
+          <t>诺安先进制造股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>89.82</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.1153</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1238,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>561600</t>
+          <t>165310</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安中证消费电子主题ETF</t>
+          <t>建信沪深300指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.30</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.1050</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1276,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159769</t>
+          <t>320015</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华中证消费电子主题ETF</t>
+          <t>诺安行业轮动混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>86.99</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0737</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +1314,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>011834</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>大成投资严选六月持有混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.91</t>
+          <t>64.26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0649</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1352,454 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>013463</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>大成致远优势一年持有期混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84.91</t>
+          <t>66.62</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0597</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015564</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成弘远回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015565</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成弘远回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1119,12 +1874,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.30</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>99.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1134,11 +1889,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9095</t>
+          <t>0.7753</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1152,27 +1907,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+          <t>前海开源深圳特区精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>87.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1830</t>
+          <t>0.1358</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1185,36 +1940,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000646</t>
+          <t>001528</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华润元大量化优选混合A</t>
+          <t>诺安先进制造股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>66.39</t>
+          <t>83.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0758</t>
+          <t>0.0500</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1223,36 +1978,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>673020</t>
+          <t>561310</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得成长精选灵活配置混合</t>
+          <t>国泰中证消费电子主题ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.85</t>
+          <t>97.89</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0680</t>
+          <t>0.0243</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1261,36 +2016,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007806</t>
+          <t>011723</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信MSCI中国A股指数增强A</t>
+          <t>前海开源深圳特区精选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>87.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0356</t>
+          <t>0.0225</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1299,36 +2054,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>510290</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰上证综合ETF</t>
+          <t>南方上证380ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.71</t>
+          <t>99.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0322</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1337,36 +2092,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011723</t>
+          <t>561600</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+          <t>平安中证消费电子主题ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>96.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0263</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1375,36 +2130,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007807</t>
+          <t>159769</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信MSCI中国A股指数增强C</t>
+          <t>银华中证消费电子主题ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>97.61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1413,36 +2168,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>510290</t>
+          <t>010307</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方上证380ETF</t>
+          <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1451,36 +2206,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007827</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华润元大量化优选混合C</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>66.39</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +2249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1545,36 +2300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515050</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证5G通信主题ETF</t>
+          <t>国泰中证全指通信设备ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>14.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.62</t>
+          <t>99.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0292</t>
+          <t>0.9095</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1583,36 +2338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>011722</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证全指通信设备ETF</t>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.24</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.37</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1677</t>
+          <t>0.1830</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1621,36 +2376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159994</t>
+          <t>000646</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华中证5G通信主题ETF</t>
+          <t>华润元大量化优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.75</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.87</t>
+          <t>66.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6764</t>
+          <t>0.0758</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1659,36 +2414,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011722</t>
+          <t>673020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+          <t>西部利得成长精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>83.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1890</t>
+          <t>0.0680</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1697,36 +2452,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007657</t>
+          <t>007806</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方红中证竞争力指数A</t>
+          <t>建信MSCI中国A股指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>92.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1435</t>
+          <t>0.0356</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1735,36 +2490,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159811</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时中证5G产业50ETF</t>
+          <t>国泰上证综合ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.65</t>
+          <t>95.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0780</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1773,36 +2528,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011132</t>
+          <t>011723</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0663</t>
+          <t>0.0263</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1811,36 +2566,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011723</t>
+          <t>007807</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+          <t>建信MSCI中国A股指数增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>92.88</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0277</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1849,36 +2604,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011133</t>
+          <t>510290</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+          <t>南方上证380ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0194</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1887,74 +2642,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007658</t>
+          <t>007827</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方红中证竞争力指数C</t>
+          <t>华润元大量化优选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>66.39</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160137</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方中证互联网指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2029,22 +2746,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>117.06</t>
+          <t>95.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>99.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1255</t>
+          <t>3.0292</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2067,22 +2784,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.97</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.45</t>
+          <t>99.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2919</t>
+          <t>1.1677</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2105,22 +2822,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.29</t>
+          <t>21.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.52</t>
+          <t>97.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6413</t>
+          <t>0.6764</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2143,22 +2860,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3480</t>
+          <t>0.1890</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2181,22 +2898,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1813</t>
+          <t>0.1435</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2209,36 +2926,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011132</t>
+          <t>159811</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+          <t>博时中证5G产业50ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.52</t>
+          <t>97.65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0871</t>
+          <t>0.0780</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2247,32 +2964,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159811</t>
+          <t>011132</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时中证5G产业50ETF</t>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.78</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0754</t>
+          <t>0.0663</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2285,36 +3002,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>011723</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰上证综合ETF</t>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.0277</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2333,26 +3050,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.52</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0343</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2361,36 +3078,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011723</t>
+          <t>007658</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+          <t>东方红中证竞争力指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0329</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2399,36 +3116,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007658</t>
+          <t>160137</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东方红中证竞争力指数C</t>
+          <t>南方中证互联网指数（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0233</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2437,6 +3154,480 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>117.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2682,7 +3873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2890,7 +4081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3438,324 +4629,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证全指通信设备ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4652</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>673010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>西部利得新动向混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>67.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1166</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>510020</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时上证超级大盘ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0717</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>673141</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0318</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000804</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信建投稳利混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006844</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信建投稳利混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>673143</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>